--- a/Test/TestAllPSMS.xlsx
+++ b/Test/TestAllPSMS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellen\Downloads\Proteoform suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellen\Documents\gitclones\ProteoformSuite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5824D7B0-B356-443F-863A-49CFF462E522}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CC4915-6CF4-4EAD-9465-C4D98503F696}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{95334424-9494-4B00-9AB0-B91D956EEE60}"/>
   </bookViews>
@@ -369,25 +369,17 @@
     <t>[b7+1:1728, b8+1:5734, b9+2:1043, b10+2:5078, b11+2:2058, b12+2:5778, b13+2:427, b17+3:359, b19+3:1566, b23+3:1107, b24+4:3411, b25+4:1186, b35+5:2540, b36+5:706, b39+6:1941, b40+6:3567, b42+5:353, b45+7:1572, b51+7:866, b52+7:11368, b53+6:5761, b58+8:968, b59+7:1127, b63+7:2148, b74+9:889, b84+10:2434, b86+9:1866, b94+10:1670];[y11+2:1287, y12+2:1876, y13+2:2018, y14+2:6311, y15+2:20852, y16+2:16416, y17+3:467, y18+2:13498, y19+2:5332, y20+2:4141, y21+2:3188, y23+3:1883, y24+2:5050, y28+4:4884, y32+3:2769, y34+3:3008, y35+3:2544, y39+5:2401, y40+4:667, y42+4:2421, y43+4:2374, y47+4:4378, y49+5:77818, y50+5:8112, y52+5:741, y57+5:2801, y62+6:6595, y63+7:23312, y82+9:697, y83+9:2710, y91+10:5260, y92+10:10068]</t>
   </si>
   <si>
-    <t>FAKEMOD@45</t>
+    <t>SGRGK[UniProt:FAKEMOD]GGKGLGKGGAK[UniProt:N6-acetyllysine on K]RHRK[UniProt:N6,N6-dimethyllysine on K]VLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,16 +402,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,7 +725,7 @@
   <dimension ref="A1:BC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1829,9 +1819,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O7" r:id="rId1" xr:uid="{C3394F63-A5A4-4A1F-AD66-1D0015B6A595}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>